--- a/portfolio-optimization/data/raw/equities/em/artemis_em_etf.xlsx
+++ b/portfolio-optimization/data/raw/equities/em/artemis_em_etf.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28928"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6470D288-788B-4CE6-8107-CDA52893851A}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5D403C5-021E-4287-AAB8-81BD7D6A994A}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -42,7 +42,25 @@
     <t>Name</t>
   </si>
   <si>
+    <t>FIGI</t>
+  </si>
+  <si>
+    <t>Ticker</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>Artemis Global Emerging Markets Fund</t>
+  </si>
+  <si>
+    <t>BBG0089RT966</t>
+  </si>
+  <si>
+    <t>ARTGEIG LN</t>
+  </si>
+  <si>
+    <t>Objective to grow capital over a five year period. The fund invests in principally in companies listed, quoted and/or traded in emerging market countries or companies headquartered or having most of their activities in emerging markets.</t>
   </si>
 </sst>
 </file>
@@ -415,15 +433,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1240"/>
+  <dimension ref="A1:F1240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,13 +451,22 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>45813</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>45812</v>
       </c>
@@ -447,10 +474,19 @@
         <v>2.1436000000000002</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>45811</v>
       </c>
@@ -458,7 +494,7 @@
         <v>2.125</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>45810</v>
       </c>
@@ -466,7 +502,7 @@
         <v>2.1055999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>45807</v>
       </c>
@@ -474,7 +510,7 @@
         <v>2.1240000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>45806</v>
       </c>
@@ -482,7 +518,7 @@
         <v>2.1438999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>45805</v>
       </c>
@@ -490,7 +526,7 @@
         <v>2.1389</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>45804</v>
       </c>
@@ -498,7 +534,7 @@
         <v>2.1269</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>45800</v>
       </c>
@@ -506,7 +542,7 @@
         <v>2.1480999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>45799</v>
       </c>
@@ -514,7 +550,7 @@
         <v>2.1602999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>45798</v>
       </c>
@@ -522,7 +558,7 @@
         <v>2.1768000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>45797</v>
       </c>
@@ -530,7 +566,7 @@
         <v>2.1694</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>45796</v>
       </c>
@@ -538,7 +574,7 @@
         <v>2.1509999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>45793</v>
       </c>
@@ -546,7 +582,7 @@
         <v>2.1928000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>45792</v>
       </c>
